--- a/uploads/16-09-2021-33.xlsx
+++ b/uploads/16-09-2021-33.xlsx
@@ -1902,12 +1902,20 @@
       <c r="D28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="E28" s="25">
+        <v>1026</v>
+      </c>
+      <c r="F28" s="25">
+        <v>1026</v>
+      </c>
+      <c r="G28" s="25">
+        <v>1026</v>
+      </c>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="25"/>
+      <c r="J28" s="25">
+        <v>1026</v>
+      </c>
       <c r="K28" s="25">
         <v>10.0</v>
       </c>
@@ -1920,9 +1928,13 @@
       <c r="N28" s="25">
         <v>9.0</v>
       </c>
-      <c r="O28" s="27"/>
+      <c r="O28" s="27">
+        <v>1026</v>
+      </c>
       <c r="P28" s="27"/>
-      <c r="Q28" s="25"/>
+      <c r="Q28" s="25">
+        <v>1026</v>
+      </c>
       <c r="R28" s="25">
         <v>7.5</v>
       </c>

--- a/uploads/16-09-2021-33.xlsx
+++ b/uploads/16-09-2021-33.xlsx
@@ -1902,20 +1902,14 @@
       <c r="D28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="25">
-        <v>1026</v>
-      </c>
+      <c r="E28" s="25"/>
       <c r="F28" s="25">
-        <v>1026</v>
-      </c>
-      <c r="G28" s="25">
-        <v>1026</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="G28" s="25"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="25">
-        <v>1026</v>
-      </c>
+      <c r="J28" s="25"/>
       <c r="K28" s="25">
         <v>10.0</v>
       </c>
@@ -1929,11 +1923,11 @@
         <v>9.0</v>
       </c>
       <c r="O28" s="27">
-        <v>1026</v>
+        <v>2025</v>
       </c>
       <c r="P28" s="27"/>
       <c r="Q28" s="25">
-        <v>1026</v>
+        <v>2021</v>
       </c>
       <c r="R28" s="25">
         <v>7.5</v>
@@ -1981,7 +1975,7 @@
       <c r="AI28" s="20"/>
       <c r="AJ28" s="20"/>
       <c r="AK28" s="21">
-        <v>207.5</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="29" spans="1:37">
@@ -1993,7 +1987,9 @@
       <c r="D29" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="25"/>
+      <c r="E29" s="25">
+        <v>5.5</v>
+      </c>
       <c r="F29" s="25">
         <v>7.5</v>
       </c>
@@ -2003,7 +1999,9 @@
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
+      <c r="K29" s="25">
+        <v>5.5</v>
+      </c>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
@@ -2043,13 +2041,15 @@
         <v>3</v>
       </c>
       <c r="E30" s="25">
-        <v>7.5</v>
+        <v>2.0</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="25"/>
+      <c r="J30" s="25">
+        <v>6.0</v>
+      </c>
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
@@ -2089,14 +2089,18 @@
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="G31" s="25">
+        <v>5.5</v>
+      </c>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="25">
         <v>7.5</v>
       </c>
       <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
+      <c r="L31" s="25">
+        <v>5.5</v>
+      </c>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
       <c r="O31" s="27"/>
@@ -2135,7 +2139,9 @@
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="27"/>
+      <c r="H32" s="27">
+        <v>6.0</v>
+      </c>
       <c r="I32" s="27"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>

--- a/uploads/16-09-2021-33.xlsx
+++ b/uploads/16-09-2021-33.xlsx
@@ -1911,10 +1911,10 @@
       <c r="I28" s="27"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25">
-        <v>10.0</v>
+        <v>4.5</v>
       </c>
       <c r="L28" s="25">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="M28" s="25">
         <v>6.5</v>
@@ -1932,9 +1932,7 @@
       <c r="R28" s="25">
         <v>7.5</v>
       </c>
-      <c r="S28" s="25">
-        <v>6.0</v>
-      </c>
+      <c r="S28" s="25"/>
       <c r="T28" s="25">
         <v>7.5</v>
       </c>
@@ -1975,7 +1973,7 @@
       <c r="AI28" s="20"/>
       <c r="AJ28" s="20"/>
       <c r="AK28" s="21">
-        <v>202.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="29" spans="1:37">
@@ -1991,10 +1989,10 @@
         <v>5.5</v>
       </c>
       <c r="F29" s="25">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="G29" s="25">
-        <v>7.5</v>
+        <v>2.0</v>
       </c>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -2008,10 +2006,12 @@
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
       <c r="Q29" s="25">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
+      <c r="S29" s="25">
+        <v>2.0</v>
+      </c>
       <c r="T29" s="25"/>
       <c r="U29" s="25"/>
       <c r="V29" s="27"/>
@@ -2051,14 +2051,18 @@
         <v>6.0</v>
       </c>
       <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
+      <c r="L30" s="25">
+        <v>2.0</v>
+      </c>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
       <c r="O30" s="27"/>
       <c r="P30" s="27"/>
       <c r="Q30" s="25"/>
       <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
+      <c r="S30" s="25">
+        <v>4.5</v>
+      </c>
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
       <c r="V30" s="27"/>
@@ -2095,12 +2099,10 @@
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="25">
-        <v>7.5</v>
+        <v>2.0</v>
       </c>
       <c r="K31" s="25"/>
-      <c r="L31" s="25">
-        <v>5.5</v>
-      </c>
+      <c r="L31" s="25"/>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
       <c r="O31" s="27"/>
@@ -2117,7 +2119,9 @@
       <c r="Z31" s="25"/>
       <c r="AA31" s="25"/>
       <c r="AB31" s="25"/>
-      <c r="AC31" s="27"/>
+      <c r="AC31" s="27">
+        <v>5.5</v>
+      </c>
       <c r="AD31" s="27"/>
       <c r="AE31" s="25"/>
       <c r="AF31" s="25"/>
@@ -2142,7 +2146,9 @@
       <c r="H32" s="27">
         <v>6.0</v>
       </c>
-      <c r="I32" s="27"/>
+      <c r="I32" s="27">
+        <v>2.0</v>
+      </c>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
@@ -2192,7 +2198,7 @@
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="27">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="P33" s="27"/>
       <c r="Q33" s="25"/>

--- a/uploads/16-09-2021-33.xlsx
+++ b/uploads/16-09-2021-33.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Ogranak CENTAR - VRAZOVA</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Amina Perla</t>
+  </si>
+  <si>
+    <t>1043 CM100</t>
   </si>
   <si>
     <t>Lejla Zelihić</t>
@@ -1930,16 +1933,18 @@
         <v>2021</v>
       </c>
       <c r="R28" s="25">
-        <v>7.5</v>
+        <v>1032</v>
       </c>
       <c r="S28" s="25"/>
-      <c r="T28" s="25">
-        <v>7.5</v>
-      </c>
-      <c r="U28" s="25">
-        <v>7.5</v>
-      </c>
-      <c r="V28" s="27"/>
+      <c r="T28" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="U28" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" s="27">
+        <v>1030</v>
+      </c>
       <c r="W28" s="27"/>
       <c r="X28" s="25">
         <v>7.5</v>
@@ -1973,7 +1978,7 @@
       <c r="AI28" s="20"/>
       <c r="AJ28" s="20"/>
       <c r="AK28" s="21">
-        <v>200.0</v>
+        <v>194.5</v>
       </c>
     </row>
     <row r="29" spans="1:37">
@@ -2119,9 +2124,7 @@
       <c r="Z31" s="25"/>
       <c r="AA31" s="25"/>
       <c r="AB31" s="25"/>
-      <c r="AC31" s="27">
-        <v>5.5</v>
-      </c>
+      <c r="AC31" s="27"/>
       <c r="AD31" s="27"/>
       <c r="AE31" s="25"/>
       <c r="AF31" s="25"/>
@@ -2271,7 +2274,7 @@
         <v>244</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" s="29">
         <v>1010</v>
@@ -2622,7 +2625,7 @@
         <v>256</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="29">
         <v>1010</v>
@@ -2973,7 +2976,7 @@
         <v>358</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C49" s="29">
         <v>1010</v>
@@ -3324,7 +3327,7 @@
         <v>477</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C56" s="29">
         <v>1010</v>
